--- a/ConfigData/Xlsx/RecordInfo.xlsx
+++ b/ConfigData/Xlsx/RecordInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\我的文档\FEWin\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>石地</t>
   </si>
@@ -181,156 +181,6 @@
   </si>
   <si>
     <t>SpellGet</t>
-  </si>
-  <si>
-    <t>TotalUseAttr</t>
-  </si>
-  <si>
-    <t>使用无属性牌</t>
-  </si>
-  <si>
-    <t>使用水属性牌</t>
-  </si>
-  <si>
-    <t>使用风属性牌</t>
-  </si>
-  <si>
-    <t>使用火属性牌</t>
-  </si>
-  <si>
-    <t>使用地属性牌</t>
-  </si>
-  <si>
-    <t>使用光属性牌</t>
-  </si>
-  <si>
-    <t>使用暗属性牌</t>
-  </si>
-  <si>
-    <t>TotalKillAttr</t>
-  </si>
-  <si>
-    <t>击杀无属性怪</t>
-  </si>
-  <si>
-    <t>击杀水属性怪</t>
-  </si>
-  <si>
-    <t>击杀风属性怪</t>
-  </si>
-  <si>
-    <t>击杀火属性怪</t>
-  </si>
-  <si>
-    <t>击杀地属性怪</t>
-  </si>
-  <si>
-    <t>击杀光属性怪</t>
-  </si>
-  <si>
-    <t>击杀暗属性怪</t>
-  </si>
-  <si>
-    <t>TotalUseRace</t>
-  </si>
-  <si>
-    <t>使用恶魔种族牌</t>
-  </si>
-  <si>
-    <t>使用机械种族牌</t>
-  </si>
-  <si>
-    <t>使用精灵种族牌</t>
-  </si>
-  <si>
-    <t>使用昆虫种族牌</t>
-  </si>
-  <si>
-    <t>使用龙种族牌</t>
-  </si>
-  <si>
-    <t>使用鸟种族牌</t>
-  </si>
-  <si>
-    <t>使用爬行种族牌</t>
-  </si>
-  <si>
-    <t>使用人类种族牌</t>
-  </si>
-  <si>
-    <t>使用兽人种族牌</t>
-  </si>
-  <si>
-    <t>使用亡灵种族牌</t>
-  </si>
-  <si>
-    <t>使用野兽种族牌</t>
-  </si>
-  <si>
-    <t>使用鱼种族牌</t>
-  </si>
-  <si>
-    <t>使用元素种族牌</t>
-  </si>
-  <si>
-    <t>使用植物种族牌</t>
-  </si>
-  <si>
-    <t>使用地精种族牌</t>
-  </si>
-  <si>
-    <t>使用石像种族牌</t>
-  </si>
-  <si>
-    <t>击败恶魔种族牌</t>
-  </si>
-  <si>
-    <t>击败机械种族牌</t>
-  </si>
-  <si>
-    <t>击败精灵种族牌</t>
-  </si>
-  <si>
-    <t>击败昆虫种族牌</t>
-  </si>
-  <si>
-    <t>击败龙种族牌</t>
-  </si>
-  <si>
-    <t>击败鸟种族牌</t>
-  </si>
-  <si>
-    <t>击败爬行种族牌</t>
-  </si>
-  <si>
-    <t>击败人类种族牌</t>
-  </si>
-  <si>
-    <t>击败兽人种族牌</t>
-  </si>
-  <si>
-    <t>击败亡灵种族牌</t>
-  </si>
-  <si>
-    <t>击败野兽种族牌</t>
-  </si>
-  <si>
-    <t>击败鱼种族牌</t>
-  </si>
-  <si>
-    <t>击败元素种族牌</t>
-  </si>
-  <si>
-    <t>击败植物种族牌</t>
-  </si>
-  <si>
-    <t>击败地精种族牌</t>
-  </si>
-  <si>
-    <t>击败石像种族牌</t>
-  </si>
-  <si>
-    <t>TotalKillRace</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +926,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:C70" totalsRowShown="0">
-  <autoFilter ref="A3:C70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:C22" totalsRowShown="0">
+  <autoFilter ref="A3:C22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="9" name="Alias"/>
@@ -1408,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1663,396 +1513,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>200</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>201</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>202</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>203</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>204</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>205</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>206</v>
-      </c>
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>207</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>208</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>209</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>210</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>211</v>
-      </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>212</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>213</v>
-      </c>
-      <c r="C43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>214</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>215</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>216</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>400</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>401</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>402</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>403</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>404</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>405</v>
-      </c>
-      <c r="C52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>406</v>
-      </c>
-      <c r="C53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>500</v>
-      </c>
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>501</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>502</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>503</v>
-      </c>
-      <c r="C57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>504</v>
-      </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>505</v>
-      </c>
-      <c r="C59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>506</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>507</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>508</v>
-      </c>
-      <c r="C62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>509</v>
-      </c>
-      <c r="C63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>510</v>
-      </c>
-      <c r="C64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>511</v>
-      </c>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>512</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>513</v>
-      </c>
-      <c r="C67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>514</v>
-      </c>
-      <c r="C68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>515</v>
-      </c>
-      <c r="C69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>516</v>
-      </c>
-      <c r="C70" t="s">
-        <v>95</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
